--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A32287B-1C7F-47E9-8C32-56926A4EE686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE1C4C-DC0D-44E9-BB5C-D6FB17F95985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
@@ -25,33 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>1D16H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-R50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>FR-R101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1D16H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataset</t>
+    <t>memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D 16H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOPs / 1e9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>coco2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +94,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +133,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,42 +457,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521C526-7D1B-4483-9848-A6F371A5B763}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3814</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5705</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE1C4C-DC0D-44E9-BB5C-D6FB17F95985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65890BF0-4A0B-481C-A32E-006FBA30DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>1D16H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D 16H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOPs / 1e9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +64,106 @@
   </si>
   <si>
     <t>coco2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-R101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voc0712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_SY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.09, 1.82, 1.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7392, 6490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU_Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory-Usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D16H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~7000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-R101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D14H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.23, 1.72, 0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000, 8400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,6 +188,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -103,8 +196,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -137,11 +229,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,103 +549,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521C526-7D1B-4483-9848-A6F371A5B763}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3814</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>5705</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
         <v>7.6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65890BF0-4A0B-481C-A32E-006FBA30DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611AFB9-3161-4400-8C3B-1476C8EB4FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>1D16H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>10000, 8400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6D 9H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +576,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -794,8 +818,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>24</v>
+      </c>
+    </row>
     <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611AFB9-3161-4400-8C3B-1476C8EB4FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8BA1A2-FB30-41F6-9C27-606EC0C84DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>1D16H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>12G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D 7H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.08, 1.93, 1.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11218, 11218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +273,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521C526-7D1B-4483-9848-A6F371A5B763}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -863,9 +885,26 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
       <c r="G8" s="1">
         <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -876,6 +915,11 @@
     <row r="14" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8BA1A2-FB30-41F6-9C27-606EC0C84DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206AB9E6-7E21-443D-9D41-42CEFB3C1812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
+    <workbookView xWindow="3840" yWindow="4284" windowWidth="23040" windowHeight="12204" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>1D16H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FLOPs / 1e9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +200,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paramas / M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOPs / G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7900+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521C526-7D1B-4483-9848-A6F371A5B763}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -611,64 +631,67 @@
     <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -686,22 +709,23 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -719,22 +743,23 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -746,36 +771,37 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1">
         <v>7.6</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
         <v>12.7</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -787,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>7.6</v>
@@ -795,22 +821,23 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -822,36 +849,37 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1">
         <v>7.6</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>13</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>4.2</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -865,22 +893,22 @@
       <c r="H7" s="1">
         <v>8000</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -892,32 +920,68 @@
         <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>138.36000000000001</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
         <v>43</v>
-      </c>
-      <c r="J8" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206AB9E6-7E21-443D-9D41-42CEFB3C1812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBA427-407A-4335-AC23-585819D48528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="4284" windowWidth="23040" windowHeight="12204" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>1D16H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>36D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11700, 8900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1, 1.43, 0.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D 14H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +630,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -972,7 +984,50 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>138.36000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBA427-407A-4335-AC23-585819D48528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0B34F-0914-4AF2-BD3D-7DF24CDF5E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="4284" windowWidth="23040" windowHeight="12204" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
+    <workbookView xWindow="3588" yWindow="3264" windowWidth="23040" windowHeight="12204" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>1D16H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,58 @@
   </si>
   <si>
     <t>1D 14H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COCO2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX3060 x 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs为1时，时间也是40min，考虑可能是forward时间花的不多，多在bbox的处理上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +326,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +378,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521C526-7D1B-4483-9848-A6F371A5B763}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,9 +715,9 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="10" width="14.44140625" customWidth="1"/>
     <col min="11" max="13" width="17.33203125" customWidth="1"/>
@@ -1030,14 +1106,134 @@
     </row>
     <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="L17" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/records/experiments.xlsx
+++ b/records/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\adversarialAttack\paper\aaod\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0B34F-0914-4AF2-BD3D-7DF24CDF5E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0A013-23D6-4D63-9A6D-E9D444DDD562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="3264" windowWidth="23040" windowHeight="12204" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
+    <workbookView xWindow="2580" yWindow="2280" windowWidth="24708" windowHeight="13464" xr2:uid="{616F5F3B-DB8B-4E6E-962A-D65942DCE50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>1D16H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,55 +239,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COCO2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTX3060 x 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs为1时，时间也是40min，考虑可能是forward时间花的不多，多在bbox的处理上</t>
+    <t>coco2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX 3060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.54, 2.75, 2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9504, 9124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D 2H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,21 +282,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -364,29 +317,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,537 +644,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521C526-7D1B-4483-9848-A6F371A5B763}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" style="2" customWidth="1"/>
+    <col min="11" max="13" width="17.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
         <v>12</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>3.8</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
         <v>12</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>7.6</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>7.6</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>12.7</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>7.6</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>7.6</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>13</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>4.2</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>24</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>8000</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>24</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>17.5</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>0.2</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
         <v>12</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>15.5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>138.36000000000001</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
         <v>12</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>15.5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>138.36000000000001</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>17.3</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>0.2</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="L17" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
